--- a/biology/Médecine/Papavérine/Papavérine.xlsx
+++ b/biology/Médecine/Papavérine/Papavérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Papav%C3%A9rine</t>
+          <t>Papavérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La papavérine est un alcaloïde isoquinoléique extrait du latex du pavot (Papaver somniferum). Elle est utilisée en pharmacognosie comme spasmolytique musculotrope.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Papav%C3%A9rine</t>
+          <t>Papavérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La papavérine a été découverte en 1848 par Georg Merck (de) (1825-1873). Merck était alors étudiant, et avait pour professeurs les chimistes allemands Justus von Liebig et August Hofmann. Il était le fils d'Emanuel Merck (de) (1794-1855), fondateur de la société industrielle Merck KGaA, l'entreprise pharmaceutique et de chimie principale d'Allemagne.
-La papavérine intervient également dans la relaxation des fibres musculaires lisses et a ainsi un rôle vasodilatateur notamment pour traitement des dysfonctionnements sexuels découvert par hasard par le docteur Ronald Virag lors d'une intervention chirurgicale[3],[4].
+La papavérine intervient également dans la relaxation des fibres musculaires lisses et a ainsi un rôle vasodilatateur notamment pour traitement des dysfonctionnements sexuels découvert par hasard par le docteur Ronald Virag lors d'une intervention chirurgicale,.
 </t>
         </is>
       </c>
